--- a/biology/Zoologie/Boophis_albilabris/Boophis_albilabris.xlsx
+++ b/biology/Zoologie/Boophis_albilabris/Boophis_albilabris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis albilabris est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis albilabris est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente entre 100 et 1 000 m d'altitude dans l'est de l'île[2]. Les observations faites dans l'ouest de Madagascar correspondent à des erreurs d'identification d'individus de l'espèce Boophis occidentalis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente entre 100 et 1 000 m d'altitude dans l'est de l'île. Les observations faites dans l'ouest de Madagascar correspondent à des erreurs d'identification d'individus de l'espèce Boophis occidentalis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis albilabris mesure de 43 à 73 mm pour les mâles et de 68 à 81 mm mais certains individus peuvent atteindre 95 mm. Son dos varie du vert-gris au brunâtre avec parfois des taches brunes. Ses flancs sont tachés de blanc. Son ventre est blanc ou jaunâtre.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin, alba, « blanc », et labrum, « lèvre », lui a été donné en référence à la bande blanche présente au niveau de sa bouche.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1888 : Descriptions of new Reptiles and Batrachians from Madagascar. Annals and Magazine of Natural History, sér. 6, vol. 1, no 6, p. 101-107 (texte intégral).</t>
         </is>
